--- a/設計.xlsx
+++ b/設計.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ume\Documents\eclipse_workspace\python_20200424\django\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ume\Documents\GitHub\django\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67843BF1-CC0C-4E98-8046-151F2CCD28CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53D7555-13F9-47F3-8791-10BC987936E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="1620" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="79">
   <si>
     <t>目的</t>
     <rPh sb="0" eb="2">
@@ -440,6 +440,33 @@
   </si>
   <si>
     <t>Link</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tweet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツイートテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ItemTweetView</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツイート画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Url</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンクテーブル</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -479,15 +506,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -575,11 +614,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -597,7 +673,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -885,7 +974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:AS66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5625" defaultRowHeight="17.649999999999999"/>
   <cols>
@@ -3753,203 +3842,1096 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A60BC53-4451-4ED6-AAFB-4076A06403A2}">
-  <dimension ref="B2:AI20"/>
+  <dimension ref="B2:AQ23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5625" defaultRowHeight="17.649999999999999"/>
   <sheetData>
-    <row r="2" spans="2:35">
-      <c r="B2" t="s">
+    <row r="2" spans="2:43">
+      <c r="B2" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="I2" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="R2" t="s">
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="22" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="2:35">
-      <c r="B3" t="s">
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22"/>
+      <c r="AO2" s="22"/>
+      <c r="AP2" s="22"/>
+      <c r="AQ2" s="23"/>
+    </row>
+    <row r="3" spans="2:43">
+      <c r="B3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I3" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="R3" t="s">
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="18" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="2:35">
-      <c r="I4" t="s">
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="18"/>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="18"/>
+      <c r="AI3" s="18"/>
+      <c r="AJ3" s="18"/>
+      <c r="AK3" s="18"/>
+      <c r="AL3" s="18"/>
+      <c r="AM3" s="18"/>
+      <c r="AN3" s="18"/>
+      <c r="AO3" s="18"/>
+      <c r="AP3" s="18"/>
+      <c r="AQ3" s="19"/>
+    </row>
+    <row r="4" spans="2:43">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="18"/>
+      <c r="AF4" s="18"/>
+      <c r="AG4" s="18"/>
+      <c r="AH4" s="18"/>
+      <c r="AI4" s="18"/>
+      <c r="AJ4" s="18"/>
+      <c r="AK4" s="18"/>
+      <c r="AL4" s="18"/>
+      <c r="AM4" s="18"/>
+      <c r="AN4" s="18"/>
+      <c r="AO4" s="18"/>
+      <c r="AP4" s="18"/>
+      <c r="AQ4" s="19"/>
+    </row>
+    <row r="5" spans="2:43">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="R4" t="s">
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="18" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="5" spans="2:35">
-      <c r="I5" t="s">
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="18"/>
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="18"/>
+      <c r="AG5" s="18"/>
+      <c r="AH5" s="18"/>
+      <c r="AI5" s="18"/>
+      <c r="AJ5" s="18"/>
+      <c r="AK5" s="18"/>
+      <c r="AL5" s="18"/>
+      <c r="AM5" s="18"/>
+      <c r="AN5" s="18"/>
+      <c r="AO5" s="18"/>
+      <c r="AP5" s="18"/>
+      <c r="AQ5" s="19"/>
+    </row>
+    <row r="6" spans="2:43">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="R5" t="s">
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="18" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="6" spans="2:35">
-      <c r="B6" t="s">
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="18"/>
+      <c r="AG6" s="18"/>
+      <c r="AH6" s="18"/>
+      <c r="AI6" s="18"/>
+      <c r="AJ6" s="18"/>
+      <c r="AK6" s="18"/>
+      <c r="AL6" s="18"/>
+      <c r="AM6" s="18"/>
+      <c r="AN6" s="18"/>
+      <c r="AO6" s="18"/>
+      <c r="AP6" s="18"/>
+      <c r="AQ6" s="19"/>
+    </row>
+    <row r="7" spans="2:43">
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="18"/>
+      <c r="AP7" s="18"/>
+      <c r="AQ7" s="19"/>
+    </row>
+    <row r="8" spans="2:43">
+      <c r="B8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I6" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="R6" t="s">
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="2:35">
-      <c r="I7" t="s">
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="18"/>
+      <c r="AC8" s="18"/>
+      <c r="AD8" s="18"/>
+      <c r="AE8" s="18"/>
+      <c r="AF8" s="18"/>
+      <c r="AG8" s="18"/>
+      <c r="AH8" s="18"/>
+      <c r="AI8" s="18"/>
+      <c r="AJ8" s="18"/>
+      <c r="AK8" s="18"/>
+      <c r="AL8" s="18"/>
+      <c r="AM8" s="18"/>
+      <c r="AN8" s="18"/>
+      <c r="AO8" s="18"/>
+      <c r="AP8" s="18"/>
+      <c r="AQ8" s="19"/>
+    </row>
+    <row r="9" spans="2:43" s="30" customFormat="1">
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="28"/>
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="28"/>
+      <c r="AC9" s="28"/>
+      <c r="AD9" s="28"/>
+      <c r="AE9" s="28"/>
+      <c r="AF9" s="28"/>
+      <c r="AG9" s="28"/>
+      <c r="AH9" s="28"/>
+      <c r="AI9" s="28"/>
+      <c r="AJ9" s="28"/>
+      <c r="AK9" s="28"/>
+      <c r="AL9" s="28"/>
+      <c r="AM9" s="28"/>
+      <c r="AN9" s="28"/>
+      <c r="AO9" s="28"/>
+      <c r="AP9" s="28"/>
+      <c r="AQ9" s="29"/>
+    </row>
+    <row r="10" spans="2:43">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="R7" t="s">
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="18" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="2:35">
-      <c r="I8" t="s">
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="18"/>
+      <c r="AC10" s="18"/>
+      <c r="AD10" s="18"/>
+      <c r="AE10" s="18"/>
+      <c r="AF10" s="18"/>
+      <c r="AG10" s="18"/>
+      <c r="AH10" s="18"/>
+      <c r="AI10" s="18"/>
+      <c r="AJ10" s="18"/>
+      <c r="AK10" s="18"/>
+      <c r="AL10" s="18"/>
+      <c r="AM10" s="18"/>
+      <c r="AN10" s="18"/>
+      <c r="AO10" s="18"/>
+      <c r="AP10" s="18"/>
+      <c r="AQ10" s="19"/>
+    </row>
+    <row r="11" spans="2:43">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="R8" t="s">
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="18" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="2:35">
-      <c r="I9" t="s">
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="18"/>
+      <c r="AB11" s="18"/>
+      <c r="AC11" s="18"/>
+      <c r="AD11" s="18"/>
+      <c r="AE11" s="18"/>
+      <c r="AF11" s="18"/>
+      <c r="AG11" s="18"/>
+      <c r="AH11" s="18"/>
+      <c r="AI11" s="18"/>
+      <c r="AJ11" s="18"/>
+      <c r="AK11" s="18"/>
+      <c r="AL11" s="18"/>
+      <c r="AM11" s="18"/>
+      <c r="AN11" s="18"/>
+      <c r="AO11" s="18"/>
+      <c r="AP11" s="18"/>
+      <c r="AQ11" s="19"/>
+    </row>
+    <row r="12" spans="2:43">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="R9" t="s">
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="18" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="10" spans="2:35">
-      <c r="I10" t="s">
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="18"/>
+      <c r="AA12" s="18"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="18"/>
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="18"/>
+      <c r="AG12" s="18"/>
+      <c r="AH12" s="18"/>
+      <c r="AI12" s="18"/>
+      <c r="AJ12" s="18"/>
+      <c r="AK12" s="18"/>
+      <c r="AL12" s="18"/>
+      <c r="AM12" s="18"/>
+      <c r="AN12" s="18"/>
+      <c r="AO12" s="18"/>
+      <c r="AP12" s="18"/>
+      <c r="AQ12" s="19"/>
+    </row>
+    <row r="13" spans="2:43">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="R10" t="s">
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="18" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="11" spans="2:35">
-      <c r="I11" t="s">
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="18"/>
+      <c r="AA13" s="18"/>
+      <c r="AB13" s="18"/>
+      <c r="AC13" s="18"/>
+      <c r="AD13" s="18"/>
+      <c r="AE13" s="18"/>
+      <c r="AF13" s="18"/>
+      <c r="AG13" s="18"/>
+      <c r="AH13" s="18"/>
+      <c r="AI13" s="18"/>
+      <c r="AJ13" s="18"/>
+      <c r="AK13" s="18"/>
+      <c r="AL13" s="18"/>
+      <c r="AM13" s="18"/>
+      <c r="AN13" s="18"/>
+      <c r="AO13" s="18"/>
+      <c r="AP13" s="18"/>
+      <c r="AQ13" s="19"/>
+    </row>
+    <row r="14" spans="2:43">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="R11" t="s">
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="18" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="12" spans="2:35">
-      <c r="I12" t="s">
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="18"/>
+      <c r="AB14" s="18"/>
+      <c r="AC14" s="18"/>
+      <c r="AD14" s="18"/>
+      <c r="AE14" s="18"/>
+      <c r="AF14" s="18"/>
+      <c r="AG14" s="18"/>
+      <c r="AH14" s="18"/>
+      <c r="AI14" s="18"/>
+      <c r="AJ14" s="18"/>
+      <c r="AK14" s="18"/>
+      <c r="AL14" s="18"/>
+      <c r="AM14" s="18"/>
+      <c r="AN14" s="18"/>
+      <c r="AO14" s="18"/>
+      <c r="AP14" s="18"/>
+      <c r="AQ14" s="19"/>
+    </row>
+    <row r="15" spans="2:43">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="R12" t="s">
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="18" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="13" spans="2:35">
-      <c r="I13" t="s">
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="18"/>
+      <c r="AA15" s="18"/>
+      <c r="AB15" s="18"/>
+      <c r="AC15" s="18"/>
+      <c r="AD15" s="18"/>
+      <c r="AE15" s="18"/>
+      <c r="AF15" s="18"/>
+      <c r="AG15" s="18"/>
+      <c r="AH15" s="18"/>
+      <c r="AI15" s="18"/>
+      <c r="AJ15" s="18"/>
+      <c r="AK15" s="18"/>
+      <c r="AL15" s="18"/>
+      <c r="AM15" s="18"/>
+      <c r="AN15" s="18"/>
+      <c r="AO15" s="18"/>
+      <c r="AP15" s="18"/>
+      <c r="AQ15" s="19"/>
+    </row>
+    <row r="16" spans="2:43">
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="R13" t="s">
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="18" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="14" spans="2:35">
-      <c r="B14" t="s">
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="18"/>
+      <c r="Y16" s="18"/>
+      <c r="Z16" s="18"/>
+      <c r="AA16" s="18"/>
+      <c r="AB16" s="18"/>
+      <c r="AC16" s="18"/>
+      <c r="AD16" s="18"/>
+      <c r="AE16" s="18"/>
+      <c r="AF16" s="18"/>
+      <c r="AG16" s="18"/>
+      <c r="AH16" s="18"/>
+      <c r="AI16" s="18"/>
+      <c r="AJ16" s="18"/>
+      <c r="AK16" s="18"/>
+      <c r="AL16" s="18"/>
+      <c r="AM16" s="18"/>
+      <c r="AN16" s="18"/>
+      <c r="AO16" s="18"/>
+      <c r="AP16" s="18"/>
+      <c r="AQ16" s="19"/>
+    </row>
+    <row r="17" spans="2:43">
+      <c r="B17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I14" t="s">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="R14" t="s">
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="W14" t="s">
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="AI14" t="s">
+      <c r="X17" s="22"/>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="22"/>
+      <c r="AA17" s="22"/>
+      <c r="AB17" s="22"/>
+      <c r="AC17" s="22"/>
+      <c r="AD17" s="22"/>
+      <c r="AE17" s="22"/>
+      <c r="AF17" s="22"/>
+      <c r="AG17" s="22"/>
+      <c r="AH17" s="23"/>
+      <c r="AI17" s="22" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="15" spans="2:35">
-      <c r="R15" t="s">
+      <c r="AJ17" s="22"/>
+      <c r="AK17" s="22"/>
+      <c r="AL17" s="22"/>
+      <c r="AM17" s="22"/>
+      <c r="AN17" s="22"/>
+      <c r="AO17" s="22"/>
+      <c r="AP17" s="22"/>
+      <c r="AQ17" s="23"/>
+    </row>
+    <row r="18" spans="2:43">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="W15" t="s">
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="AI15" s="17" t="s">
+      <c r="X18" s="18"/>
+      <c r="Y18" s="18"/>
+      <c r="Z18" s="18"/>
+      <c r="AA18" s="18"/>
+      <c r="AB18" s="18"/>
+      <c r="AC18" s="18"/>
+      <c r="AD18" s="18"/>
+      <c r="AE18" s="18"/>
+      <c r="AF18" s="18"/>
+      <c r="AG18" s="18"/>
+      <c r="AH18" s="19"/>
+      <c r="AI18" s="20" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="16" spans="2:35">
-      <c r="R16" s="17" t="s">
+      <c r="AJ18" s="18"/>
+      <c r="AK18" s="18"/>
+      <c r="AL18" s="18"/>
+      <c r="AM18" s="18"/>
+      <c r="AN18" s="18"/>
+      <c r="AO18" s="18"/>
+      <c r="AP18" s="18"/>
+      <c r="AQ18" s="19"/>
+    </row>
+    <row r="19" spans="2:43">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="W16" t="s">
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="AI16" s="17" t="s">
+      <c r="X19" s="18"/>
+      <c r="Y19" s="18"/>
+      <c r="Z19" s="18"/>
+      <c r="AA19" s="18"/>
+      <c r="AB19" s="18"/>
+      <c r="AC19" s="18"/>
+      <c r="AD19" s="18"/>
+      <c r="AE19" s="18"/>
+      <c r="AF19" s="18"/>
+      <c r="AG19" s="18"/>
+      <c r="AH19" s="19"/>
+      <c r="AI19" s="20" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="17" spans="2:35">
-      <c r="R17" s="17" t="s">
+      <c r="AJ19" s="18"/>
+      <c r="AK19" s="18"/>
+      <c r="AL19" s="18"/>
+      <c r="AM19" s="18"/>
+      <c r="AN19" s="18"/>
+      <c r="AO19" s="18"/>
+      <c r="AP19" s="18"/>
+      <c r="AQ19" s="19"/>
+    </row>
+    <row r="20" spans="2:43">
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="W17" t="s">
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="AI17" s="17" t="s">
+      <c r="X20" s="18"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="18"/>
+      <c r="AB20" s="18"/>
+      <c r="AC20" s="18"/>
+      <c r="AD20" s="18"/>
+      <c r="AE20" s="18"/>
+      <c r="AF20" s="18"/>
+      <c r="AG20" s="18"/>
+      <c r="AH20" s="19"/>
+      <c r="AI20" s="20" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="18" spans="2:35">
-      <c r="B18" t="s">
+      <c r="AJ20" s="18"/>
+      <c r="AK20" s="18"/>
+      <c r="AL20" s="18"/>
+      <c r="AM20" s="18"/>
+      <c r="AN20" s="18"/>
+      <c r="AO20" s="18"/>
+      <c r="AP20" s="18"/>
+      <c r="AQ20" s="19"/>
+    </row>
+    <row r="21" spans="2:43">
+      <c r="B21" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="I18" t="s">
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="R18" t="s">
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="18" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="2:35">
-      <c r="B19" t="s">
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="18"/>
+      <c r="Z21" s="18"/>
+      <c r="AA21" s="18"/>
+      <c r="AB21" s="18"/>
+      <c r="AC21" s="18"/>
+      <c r="AD21" s="18"/>
+      <c r="AE21" s="18"/>
+      <c r="AF21" s="18"/>
+      <c r="AG21" s="18"/>
+      <c r="AH21" s="18"/>
+      <c r="AI21" s="18"/>
+      <c r="AJ21" s="18"/>
+      <c r="AK21" s="18"/>
+      <c r="AL21" s="18"/>
+      <c r="AM21" s="18"/>
+      <c r="AN21" s="18"/>
+      <c r="AO21" s="18"/>
+      <c r="AP21" s="18"/>
+      <c r="AQ21" s="19"/>
+    </row>
+    <row r="22" spans="2:43">
+      <c r="B22" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="I19" t="s">
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="R19" t="s">
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="18" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="20" spans="2:35">
-      <c r="B20" t="s">
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="18"/>
+      <c r="Y22" s="18"/>
+      <c r="Z22" s="18"/>
+      <c r="AA22" s="18"/>
+      <c r="AB22" s="18"/>
+      <c r="AC22" s="18"/>
+      <c r="AD22" s="18"/>
+      <c r="AE22" s="18"/>
+      <c r="AF22" s="18"/>
+      <c r="AG22" s="18"/>
+      <c r="AH22" s="18"/>
+      <c r="AI22" s="18"/>
+      <c r="AJ22" s="18"/>
+      <c r="AK22" s="18"/>
+      <c r="AL22" s="18"/>
+      <c r="AM22" s="18"/>
+      <c r="AN22" s="18"/>
+      <c r="AO22" s="18"/>
+      <c r="AP22" s="18"/>
+      <c r="AQ22" s="19"/>
+    </row>
+    <row r="23" spans="2:43">
+      <c r="B23" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="I20" t="s">
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="R20" t="s">
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="18" t="s">
         <v>57</v>
       </c>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="18"/>
+      <c r="Y23" s="18"/>
+      <c r="Z23" s="18"/>
+      <c r="AA23" s="18"/>
+      <c r="AB23" s="18"/>
+      <c r="AC23" s="18"/>
+      <c r="AD23" s="18"/>
+      <c r="AE23" s="18"/>
+      <c r="AF23" s="18"/>
+      <c r="AG23" s="18"/>
+      <c r="AH23" s="18"/>
+      <c r="AI23" s="18"/>
+      <c r="AJ23" s="18"/>
+      <c r="AK23" s="18"/>
+      <c r="AL23" s="18"/>
+      <c r="AM23" s="18"/>
+      <c r="AN23" s="18"/>
+      <c r="AO23" s="18"/>
+      <c r="AP23" s="18"/>
+      <c r="AQ23" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
